--- a/【サンプル】ホットペッパービューティー - コピー.xlsx
+++ b/【サンプル】ホットペッパービューティー - コピー.xlsx
@@ -5,254 +5,234 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syuku\Google ドライブ\PGバイト関連\InterRock2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\syu\google\PGバイト関連\InterRock2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A48ABB4-DB8F-4DF8-8BAD-CB82D43AB454}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F713907A-D3C4-452C-BD65-82E9178763F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E339C65-671A-4093-82FD-A926580B2E25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結果" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結果!$A$1:$AD$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結果!$A$1:$AE$1</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>ジャンル</t>
   </si>
   <si>
     <t>店舗名</t>
-    <rPh sb="0" eb="2">
-      <t>テンポ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>店舗名カナ</t>
-    <rPh sb="0" eb="2">
-      <t>テンポ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>電話番号</t>
-    <rPh sb="0" eb="2">
-      <t>デンワ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>都道府県コード</t>
-    <rPh sb="0" eb="4">
-      <t>トドウフケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>都道府県</t>
-    <rPh sb="0" eb="4">
-      <t>トドウフケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市区町村番地</t>
   </si>
   <si>
     <t>店舗URL</t>
-    <rPh sb="0" eb="2">
-      <t>テンポ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>詳細データ取得日</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>料金プラン着地</t>
-    <rPh sb="0" eb="2">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チャクチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>月額料金</t>
   </si>
   <si>
     <t>お店のホームページ</t>
-    <rPh sb="1" eb="2">
-      <t>ミセ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>パンくず</t>
   </si>
   <si>
     <t>ヘッダー画像有無</t>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ウム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>こだわり有無</t>
-    <rPh sb="4" eb="6">
-      <t>ウム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>スライド画像数</t>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>キャッチコピー</t>
   </si>
   <si>
     <t>アクセス・道案内</t>
-    <rPh sb="5" eb="8">
-      <t>ミチアンナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>営業時間</t>
-    <rPh sb="0" eb="2">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>定休日</t>
-    <rPh sb="0" eb="3">
-      <t>テイキュウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>クレジットカード</t>
   </si>
   <si>
     <t>設備</t>
-    <rPh sb="0" eb="2">
-      <t>セツビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>カット価格</t>
-    <rPh sb="3" eb="5">
-      <t>カカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>席数</t>
-    <rPh sb="0" eb="2">
-      <t>セキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>スタッフ数</t>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>駐車場</t>
-    <rPh sb="0" eb="3">
-      <t>チュウシャジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>こだわり条件</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>スタッフ募集</t>
-    <rPh sb="4" eb="6">
-      <t>ボシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>最終更新日</t>
-    <rPh sb="0" eb="2">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>コウシンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>市区町村番地</t>
-    <rPh sb="0" eb="2">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンチ</t>
-    </rPh>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000415881/?cstt=1</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000330209/?cstt=2</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000263971/?cstt=3</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000170471/?cstt=4</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000072020/?cstt=5</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000232797/?cstt=6</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000382851/?cstt=7</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000184648/?cstt=8</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000368473/?cstt=9</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000075463/?cstt=10</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000442421/?cstt=11</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000417034/?cstt=12</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000499607/?cstt=13</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000379440/?cstt=14</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000383558/?cstt=15</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000495371/?cstt=16</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000532712/?cstt=17</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000409761/?cstt=18</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000239933/?cstt=19</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000356721/?cstt=20</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000432065/?cstt=21</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000526553/?cstt=22</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000387547/?cstt=23</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000390302/?cstt=24</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000521423/?cstt=25</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000457123/?cstt=26</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000040372/?cstt=27</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000075480/?cstt=28</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000040046/?cstt=29</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000379483/?cstt=30</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000478063/?cstt=31</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000322385/?cstt=32</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000469435/?cstt=33</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000501514/?cstt=34</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000468516/?cstt=35</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000505322/?cstt=36</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000470967/?cstt=37</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000436571/?cstt=38</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000361623/?cstt=39</t>
+  </si>
+  <si>
+    <t>https://beauty.hotpepper.jp/slnH000481519/?cstt=40</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -307,20 +287,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -638,40 +622,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D125C-B792-42D7-B387-0DE6169088B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AD1270"/>
+  <dimension ref="A1:AE1270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="44.75" customWidth="1"/>
-    <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="44.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50" style="4" customWidth="1"/>
+    <col min="3" max="3" width="40" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="21.08203125" customWidth="1"/>
-    <col min="10" max="10" width="22.08203125" customWidth="1"/>
-    <col min="11" max="11" width="25.08203125" customWidth="1"/>
-    <col min="18" max="18" width="12.58203125" customWidth="1"/>
-    <col min="21" max="21" width="26.83203125" customWidth="1"/>
-    <col min="22" max="22" width="29.83203125" customWidth="1"/>
-    <col min="23" max="23" width="60.5" customWidth="1"/>
-    <col min="24" max="24" width="43.08203125" customWidth="1"/>
-    <col min="28" max="28" width="24.75" customWidth="1"/>
-    <col min="29" max="29" width="32.5" customWidth="1"/>
-    <col min="30" max="30" width="40.5" customWidth="1"/>
-    <col min="31" max="31" width="36.75" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24" style="4" customWidth="1"/>
+    <col min="8" max="8" width="47.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="25.125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="26.875" style="4" customWidth="1"/>
+    <col min="22" max="22" width="29.875" style="4" customWidth="1"/>
+    <col min="23" max="23" width="60.5" style="4" customWidth="1"/>
+    <col min="24" max="24" width="43.125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="24.75" style="4" customWidth="1"/>
+    <col min="29" max="29" width="32.5" style="4" customWidth="1"/>
+    <col min="30" max="30" width="40.5" style="4" customWidth="1"/>
+    <col min="31" max="31" width="36.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -691,88 +675,289 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="1270" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H41" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1270" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H1270" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:AE1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="H41" r:id="rId1" xr:uid="{7D787519-BD4E-4B15-9C1A-6229DAF77A89}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>